--- a/data/username_pwd.xlsx
+++ b/data/username_pwd.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,13 +46,26 @@
   </si>
   <si>
     <t>123456xyf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18675956153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18675956153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>123456xyf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,21 +122,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,81 +417,81 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="2"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>18675956153</v>
-      </c>
-      <c r="B2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>18675956153</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>18675956153</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/username_pwd.xlsx
+++ b/data/username_pwd.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expect_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +63,10 @@
   </si>
   <si>
     <t>123456xyf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18675956153</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,23 +415,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -440,59 +440,102 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/username_pwd.xlsx
+++ b/data/username_pwd.xlsx
@@ -1,117 +1,422 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>expect_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18675956153</t>
+  </si>
+  <si>
+    <t>123456xyf</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
   <si>
     <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456xyf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18675956153</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18675956153</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456xyf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18675956153</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,13 +424,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -134,19 +682,62 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -195,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -230,7 +821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -404,142 +995,111 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/username_pwd.xlsx
+++ b/data/username_pwd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>username</t>
   </si>
@@ -40,18 +40,24 @@
   <si>
     <t>False</t>
   </si>
+  <si>
+    <t>13838384382</t>
+  </si>
+  <si>
+    <t>1383838438222</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,7 +78,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,49 +87,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +107,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -145,7 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,57 +159,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,36 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,17 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +483,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -525,148 +524,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
@@ -1036,6 +1035,56 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/username_pwd.xlsx
+++ b/data/username_pwd.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C7"/>
@@ -426,55 +426,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -487,7 +438,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/username_pwd.xlsx
+++ b/data/username_pwd.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C7"/>
+      <selection activeCell="A3" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -424,6 +424,44 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/username_pwd.xlsx
+++ b/data/username_pwd.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C6"/>
@@ -424,44 +424,6 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/username_pwd.xlsx
+++ b/data/username_pwd.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C6"/>
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,6 +426,55 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -438,7 +487,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
